--- a/12/VectorAlgebra.xlsx
+++ b/12/VectorAlgebra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\anupam\base\12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9892A9C-051A-4318-A822-C51E9D5CF527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{875F1769-54A9-495C-B52E-AB7E589F4450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{29554E18-B50E-4D0E-A32C-7666D94E0038}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t>temprature, area, volume, radius</t>
   </si>
@@ -157,6 +157,15 @@
   </si>
   <si>
     <t>Components of a vector</t>
+  </si>
+  <si>
+    <t>here point p has coordinates (x,y,z)</t>
+  </si>
+  <si>
+    <t>vector component</t>
+  </si>
+  <si>
+    <t>See example 9</t>
   </si>
 </sst>
 </file>
@@ -1674,6 +1683,189 @@
         <a:xfrm>
           <a:off x="1095375" y="32940556"/>
           <a:ext cx="5762625" cy="3683069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>20411</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFB12AF7-B628-F870-20ED-636396788D15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7762875" y="34451925"/>
+          <a:ext cx="2620736" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F0667DA-4E06-26B9-C8A3-63E25AC8132A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="885825" y="37071300"/>
+          <a:ext cx="6410325" cy="2905125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316057</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2FB6973-D1B9-F608-D6A8-2E7BED74DA35}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1057275" y="40481251"/>
+          <a:ext cx="5964382" cy="666750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1992,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4740CE6-797E-4A3B-BA56-DD64BD6AC912}">
-  <dimension ref="A1:Y156"/>
+  <dimension ref="A1:Y223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A202" sqref="A202"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="M220" sqref="M220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2249,6 +2441,21 @@
         <v>43</v>
       </c>
     </row>
+    <row r="178" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="N178" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="183" spans="14:19" x14ac:dyDescent="0.25">
+      <c r="S183" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B223" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
